--- a/tests/testthat/test_data/FashionValley_two_conc_lt_zero_one_sheet.xlsx
+++ b/tests/testthat/test_data/FashionValley_two_conc_lt_zero_one_sheet.xlsx
@@ -5897,13 +5897,14 @@
     <TaxCatchAll xmlns="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <OldForms xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="21cacd0d90dbd8beb6fc12ad84d4cd0e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b418c8325abc32123734ac979891270" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75e20f4bf570a29fdd68b6ac0ce9f23e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d8333fcdd8157586878df4d15f204f2" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
     <xsd:import namespace="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
@@ -5930,6 +5931,8 @@
                 <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
                 <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:OldForms" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6018,6 +6021,18 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="26" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="OldForms" ma:index="27" nillable="true" ma:displayName="Old Forms " ma:format="Dropdown" ma:internalName="OldForms">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -6184,21 +6199,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29B58E0D-20BE-4A84-9419-20FAFBF18F8D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
-    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5493ACBB-58AC-4868-80B3-F4453FB30937}"/>
 </file>